--- a/Dokumenty/Risk-List.xlsx
+++ b/Dokumenty/Risk-List.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krystof\Desktop\programming\Annual project 1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dumar\IdeaProjects\Annual-project-1\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF835506-E8A4-4CD6-B1F4-458DF3007F48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C58BCB-871A-4187-B0FA-8AF64060326C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4128" yWindow="1992" windowWidth="16404" windowHeight="10020" tabRatio="509" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="509" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -352,7 +352,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -633,15 +633,16 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="36.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="114.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Dokumenty/Risk-List.xlsx
+++ b/Dokumenty/Risk-List.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dumar\IdeaProjects\Annual-project-1\Dokumenty\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krystof\Desktop\programming\Annual project 1\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5C58BCB-871A-4187-B0FA-8AF64060326C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52157067-57BC-4469-A22B-F24094524D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="509" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>Risk</t>
   </si>
@@ -39,21 +39,9 @@
     <t>Vliv</t>
   </si>
   <si>
-    <t>Lidé nebudou používat naši appku kvůli velké konkurenci</t>
-  </si>
-  <si>
     <t>Velký</t>
   </si>
   <si>
-    <t>Velká</t>
-  </si>
-  <si>
-    <t>Aplikace časem umře</t>
-  </si>
-  <si>
-    <t>Přinést stejnou funkcionalitu za menší cenu</t>
-  </si>
-  <si>
     <t>ID</t>
   </si>
   <si>
@@ -72,24 +60,15 @@
     <t>Aplikace bude nepřehledná a bude třeba zaškolit v jejím používání</t>
   </si>
   <si>
-    <t>Vytvořit čisté a přehledné GUI</t>
-  </si>
-  <si>
     <t>Malá produktivita teamu</t>
   </si>
   <si>
     <t>Pomalý progres, problém a stres s deadliny</t>
   </si>
   <si>
-    <t>Dodržovat termíny, vše mít čistě a zřetelně naplánovné v Jire</t>
-  </si>
-  <si>
     <t>Malá kvalita kódu</t>
   </si>
   <si>
-    <t>Často testovat, používat coding best pratice, kvalitní dokumentace.</t>
-  </si>
-  <si>
     <t>Aplikace bude těžko testovatelná, těžko rozšířitelná, kód bude nečitelný</t>
   </si>
   <si>
@@ -99,16 +78,25 @@
     <t>Může se zhoršit výkon a zvýšit cena</t>
   </si>
   <si>
-    <t>Identifikovat naše cíle s aplikací a podle toho zvolit nejlepší dostupné technologie.</t>
-  </si>
-  <si>
     <t>Slabý project managment</t>
   </si>
   <si>
     <t>Slabá komunikace, neřešení vzniklých problémů, rozdílné vize s projektem</t>
   </si>
   <si>
-    <t>Předávat si informace v pravidelných intervalech, dokumentovat a diskutovat důležité rozhodnutí, mít adekvátně rozdělené prcovní úlohy</t>
+    <t>Vyzkoušet aspoň 3 frameworky pro vytvoření GUI</t>
+  </si>
+  <si>
+    <t>Minimálně jednou týdně prodiskutovat svůj individuální progres ve skupině, plánovat a přiřazovat si tasky v Jire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vybrat technologie které budou co nejméně komplexní, zkusit vytvořit demo aspoň ve dvou technologiích </t>
+  </si>
+  <si>
+    <t>Určit člověka který se bude starat o komunikaci, rozdělování tasků a sledovat jejich dodržení</t>
+  </si>
+  <si>
+    <t>Používat software na statickou analýzu kódu, např SonarQube</t>
   </si>
 </sst>
 </file>
@@ -165,7 +153,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -243,30 +231,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
@@ -330,29 +294,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="fill"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -630,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,147 +610,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="13">
+      <c r="F2" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="11">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="C5" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="16" t="s">
+      <c r="C6" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
+      <c r="D6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="F6" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>27</v>
-      </c>
+      <c r="A7" s="11"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="14"/>
+      <c r="A8" s="11"/>
       <c r="B8" s="2"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -794,7 +746,7 @@
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="14"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="2"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -802,30 +754,23 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="14"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="2"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="14"/>
+    <row r="11" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="9"/>
       <c r="B11" s="2"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="12"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Dokumenty/Risk-List.xlsx
+++ b/Dokumenty/Risk-List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krystof\Desktop\programming\Annual project 1\Dokumenty\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52157067-57BC-4469-A22B-F24094524D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02B2E2C-CEF8-463B-959F-D788E1218CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="509" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,19 +84,19 @@
     <t>Slabá komunikace, neřešení vzniklých problémů, rozdílné vize s projektem</t>
   </si>
   <si>
-    <t>Vyzkoušet aspoň 3 frameworky pro vytvoření GUI</t>
-  </si>
-  <si>
     <t>Minimálně jednou týdně prodiskutovat svůj individuální progres ve skupině, plánovat a přiřazovat si tasky v Jire</t>
   </si>
   <si>
-    <t xml:space="preserve">Vybrat technologie které budou co nejméně komplexní, zkusit vytvořit demo aspoň ve dvou technologiích </t>
-  </si>
-  <si>
     <t>Určit člověka který se bude starat o komunikaci, rozdělování tasků a sledovat jejich dodržení</t>
   </si>
   <si>
     <t>Používat software na statickou analýzu kódu, např SonarQube</t>
+  </si>
+  <si>
+    <t>Vyzkoušet aspoň 3 frameworky pro vytvoření GUI, nechat otestovat demo přímo zaměstnanci kteří budou appku používat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vybrat technologie které budou adekvátní k zadání, zkusit vytvořit demo aspoň ve dvou technologiích </t>
   </si>
 </sst>
 </file>
@@ -596,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -646,7 +646,7 @@
         <v>8</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -666,7 +666,7 @@
         <v>4</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -686,7 +686,7 @@
         <v>8</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -706,7 +706,7 @@
         <v>8</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -726,7 +726,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
